--- a/IO_M2.1_new/Reprod_RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/Reprod_RunControl_M2.1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="506">
   <si>
     <t xml:space="preserve">Sheet #</t>
   </si>
@@ -520,6 +520,18 @@
   </si>
   <si>
     <t xml:space="preserve">WA-PERS2-119.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS.fillin.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS.fillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSERS.yos</t>
   </si>
   <si>
     <t xml:space="preserve">Demographics</t>
@@ -2291,9 +2303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>607320</xdr:colOff>
+      <xdr:colOff>606960</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2302,8 +2314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8146800" y="3313440"/>
-          <a:ext cx="2528280" cy="1532160"/>
+          <a:off x="8165880" y="3313440"/>
+          <a:ext cx="2527920" cy="1531800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2730,7 +2742,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2795,36 +2807,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="I1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="0"/>
@@ -2833,23 +2845,23 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B2" s="42" t="n">
         <v>0.46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="42" t="n">
         <v>0.46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="O2" s="42" t="n">
         <v>0.46</v>
@@ -2860,7 +2872,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B3" s="43" t="n">
         <v>0.027</v>
@@ -2888,46 +2900,46 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="I5" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="P5" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="Q5" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,7 +3466,7 @@
       <c r="N26" s="49"/>
       <c r="O26" s="51"/>
       <c r="P26" s="51" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="Q26" s="49"/>
       <c r="R26" s="50"/>
@@ -3507,19 +3519,19 @@
       <c r="B30" s="0"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="P30" s="0"/>
     </row>
@@ -3547,7 +3559,7 @@
         <v>0.075</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P31" s="0"/>
     </row>
@@ -3575,7 +3587,7 @@
         <v>0.075</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P32" s="0"/>
     </row>
@@ -3610,7 +3622,7 @@
         <v>0.0606901998</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P34" s="0"/>
     </row>
@@ -3637,14 +3649,14 @@
         <v>0.0332</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="P35" s="0"/>
       <c r="R35" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,7 +3682,7 @@
         <v>0.08083072</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="P36" s="0"/>
       <c r="R36" s="0" t="n">
@@ -3724,7 +3736,7 @@
         <v>0.0606901998</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="R38" s="0" t="n">
         <v>0.081</v>
@@ -3759,7 +3771,7 @@
         <v>0.0332</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3784,7 +3796,7 @@
         <v>0.08083072</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3813,8 +3825,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="27" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="27" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="27" width="10.6032388663968"/>
@@ -3881,25 +3893,25 @@
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
       <c r="D5" s="56" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
@@ -3911,7 +3923,7 @@
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
       <c r="D6" s="59" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E6" s="60" t="n">
         <v>0.459999999999999</v>
@@ -3941,7 +3953,7 @@
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="62" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E7" s="63" t="n">
         <v>0.46</v>
@@ -3971,7 +3983,7 @@
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="59" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E8" s="60" t="n">
         <v>0.46</v>
@@ -4020,7 +4032,7 @@
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="59" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E10" s="65" t="n">
         <v>0.36506976744186</v>
@@ -4050,7 +4062,7 @@
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
       <c r="D11" s="59" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E11" s="65" t="n">
         <v>0.317084012446288</v>
@@ -4080,7 +4092,7 @@
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="59" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E12" s="65" t="n">
         <v>0.133333333333333</v>
@@ -4110,7 +4122,7 @@
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
       <c r="D13" s="66" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E13" s="67" t="n">
         <v>0.293478260869565</v>
@@ -4140,7 +4152,7 @@
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
       <c r="D14" s="69" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
@@ -4318,7 +4330,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E25" s="46" t="n">
         <v>0.423209302325581</v>
@@ -4341,7 +4353,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E26" s="46" t="n">
         <v>0.391169062083272</v>
@@ -4364,7 +4376,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E27" s="46" t="n">
         <v>0.3</v>
@@ -4387,7 +4399,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E28" s="46" t="n">
         <v>0.347826086956522</v>
@@ -4526,26 +4538,26 @@
   </sheetPr>
   <dimension ref="A1:AY109"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C90" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
-      <selection pane="topRight" activeCell="C109" activeCellId="0" sqref="C109"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.3076923076923"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.8421052631579"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="17" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.3886639676113"/>
@@ -4555,7 +4567,7 @@
     <col collapsed="false" hidden="false" max="30" min="30" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="4" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="43" min="42" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="48" min="44" style="0" width="13.3886639676113"/>
@@ -4966,7 +4978,7 @@
         <v>130</v>
       </c>
       <c r="C6" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -5126,7 +5138,7 @@
         <v>130</v>
       </c>
       <c r="C7" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -5286,7 +5298,7 @@
         <v>130</v>
       </c>
       <c r="C8" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -5446,7 +5458,7 @@
         <v>130</v>
       </c>
       <c r="C9" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -5599,9 +5611,163 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="AE10" s="0"/>
+      <c r="A10" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="V10" s="23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z10" s="23" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA10" s="23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB10" s="23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC10" s="23" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="AD10" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="AF10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ10" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT10" s="25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU10" s="25" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="AV10" s="25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AW10" s="22" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="22" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="22" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AE11" s="0"/>
@@ -5611,7 +5777,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -5644,18 +5810,16 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>131</v>
@@ -5805,17 +5969,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C15" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>131</v>
@@ -5965,17 +6128,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C16" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>131</v>
@@ -6125,17 +6287,16 @@
     </row>
     <row r="17" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C17" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>131</v>
@@ -6285,17 +6446,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>164</v>
-      </c>
       <c r="C18" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>131</v>
@@ -6445,17 +6605,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C19" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>147</v>
@@ -6605,17 +6764,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C20" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>147</v>
@@ -6765,17 +6923,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C21" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>155</v>
@@ -6925,17 +7082,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C22" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>155</v>
@@ -7085,17 +7241,16 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>170</v>
-      </c>
       <c r="C23" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>159</v>
@@ -7245,17 +7400,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C24" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>159</v>
@@ -7437,17 +7591,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C26" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>147</v>
@@ -7597,17 +7750,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C27" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="22" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>155</v>
@@ -7788,7 +7940,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -7821,7 +7973,7 @@
     </row>
     <row r="30" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -7854,13 +8006,13 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C31" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -8014,13 +8166,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C32" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -8174,13 +8326,13 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C33" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -8334,13 +8486,13 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C34" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -8494,13 +8646,13 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C35" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -8654,16 +8806,16 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C36" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>131</v>
@@ -8813,13 +8965,13 @@
     </row>
     <row r="37" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C37" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -8973,16 +9125,16 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C38" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>131</v>
@@ -9132,13 +9284,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C39" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -9292,13 +9444,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C40" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -9483,13 +9635,13 @@
     </row>
     <row r="42" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C42" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -9643,13 +9795,13 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C43" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -9803,13 +9955,13 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C44" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -9963,13 +10115,13 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C45" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -10123,13 +10275,13 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C46" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -10283,13 +10435,13 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C47" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -10443,13 +10595,13 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C48" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -10603,13 +10755,13 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C49" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -10794,13 +10946,13 @@
     </row>
     <row r="51" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C51" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -10954,13 +11106,13 @@
     </row>
     <row r="52" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C52" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -11114,13 +11266,13 @@
     </row>
     <row r="53" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C53" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -11274,13 +11426,13 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C54" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -11434,13 +11586,13 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C55" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -11594,13 +11746,13 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C56" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -11754,13 +11906,13 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C57" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -11914,13 +12066,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C58" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -12145,7 +12297,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="31" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -12178,13 +12330,13 @@
     </row>
     <row r="62" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C62" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -12338,13 +12490,13 @@
     </row>
     <row r="63" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C63" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -12498,13 +12650,13 @@
     </row>
     <row r="64" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C64" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -12658,13 +12810,13 @@
     </row>
     <row r="65" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C65" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -12818,13 +12970,13 @@
     </row>
     <row r="66" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C66" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -12978,13 +13130,13 @@
     </row>
     <row r="67" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C67" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D67" s="22" t="n">
         <v>1</v>
@@ -13137,13 +13289,13 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C68" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -13297,13 +13449,13 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C69" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -13489,13 +13641,13 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C71" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -13681,7 +13833,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
@@ -13715,13 +13867,13 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C74" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="22" t="n">
         <v>1</v>
@@ -13874,13 +14026,13 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C75" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -14034,13 +14186,13 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C76" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -14194,13 +14346,13 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C77" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -14354,13 +14506,13 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C78" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -14514,13 +14666,13 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C79" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -14674,13 +14826,13 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C80" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -14834,13 +14986,13 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C81" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -15026,7 +15178,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="31" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
@@ -15060,13 +15212,13 @@
     </row>
     <row r="84" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C84" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -15220,13 +15372,13 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C85" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -15380,13 +15532,13 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C86" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -15540,13 +15692,13 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C87" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -15700,13 +15852,13 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C88" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -15893,7 +16045,7 @@
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="31" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
@@ -15920,13 +16072,13 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C91" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -16080,13 +16232,13 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C92" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -16240,13 +16392,13 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C93" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -16400,13 +16552,13 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C94" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -16560,13 +16712,13 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C95" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -16752,7 +16904,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
@@ -16785,13 +16937,13 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="26" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C98" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -16945,13 +17097,13 @@
     </row>
     <row r="99" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C99" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -17105,13 +17257,13 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C100" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -17265,13 +17417,13 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C101" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -17425,13 +17577,13 @@
     </row>
     <row r="102" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="26" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C102" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -17588,20 +17740,20 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="21" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AC104" s="34"/>
       <c r="AE104" s="0"/>
     </row>
     <row r="105" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C105" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -17756,13 +17908,13 @@
     </row>
     <row r="106" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C106" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -17917,13 +18069,13 @@
     </row>
     <row r="107" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C107" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -18078,13 +18230,13 @@
     </row>
     <row r="108" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C108" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -18239,13 +18391,13 @@
     </row>
     <row r="109" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C109" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" s="22" t="n">
         <f aca="false">FALSE()</f>
@@ -18412,7 +18564,7 @@
     <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="AS4:AV4"/>
   </mergeCells>
-  <dataValidations count="21">
+  <dataValidations count="42">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AN6:AN9 AN13:AN102 AN105:AN109" type="list">
       <formula1>"MA,EAA"</formula1>
       <formula2>0</formula2>
@@ -18429,7 +18581,7 @@
       <formula1>ConPolicy</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:D10 P6:P9 C13:D102 P13:P102 C105:D109 P105:P109" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6:D9 P6:P9 C13:D102 P13:P102 C105:D109 P105:P109" type="list">
       <formula1>"TRUE,FALSE"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -18497,6 +18649,90 @@
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C10:D10 P10" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I10:J10" type="list">
+      <formula1>#ref!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Integer 55 to 65, please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="S10" type="whole">
+      <formula1>35</formula1>
+      <formula2>80</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-10% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V10 AB10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0.1</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Integer, 0-15" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="W10:X10" type="whole">
+      <formula1>0</formula1>
+      <formula2>15</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-20% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="Y10:AA10 AC10 AE10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0.2</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-20% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AD10" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-75% please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AF10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0.75</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AH10" type="list">
+      <formula1>"open,closed"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AI10" type="list">
+      <formula1>"cd,cp,sl"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Integer, 0 to 30, please" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AJ10" type="whole">
+      <formula1>0</formula1>
+      <formula2>30</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Integer, 1 to 30" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AL10" type="whole">
+      <formula1>1</formula1>
+      <formula2>30</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AM10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AN10" type="list">
+      <formula1>"MA,EAA"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AO10" type="decimal">
+      <formula1>1</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AP10" type="list">
+      <formula1>"MA,AL,AL_pct"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AQ10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>1.5</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AS10" type="list">
+      <formula1>ConPolicy</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-75%" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AT10:AU10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0.75</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Decimal, 0-30%" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AV10" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0.3</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="AW10:AY10" type="list">
+      <formula1>"TRUE,FALSE"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -18516,12 +18752,12 @@
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -18536,12 +18772,12 @@
         <v>109</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.075</v>
@@ -18553,9 +18789,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>0.025</v>
@@ -18567,9 +18803,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>0.075</v>
@@ -18613,13 +18849,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -18640,8 +18876,8 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18651,30 +18887,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18697,7 +18933,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -18724,15 +18960,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="90.9433198380567"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.6923076923077"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -18742,15 +18978,15 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18763,23 +18999,23 @@
         <v>139</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18792,23 +19028,23 @@
         <v>145</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18821,7 +19057,7 @@
         <v>142</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18829,7 +19065,7 @@
         <v>153</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18917,35 +19153,35 @@
         <v>133</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18975,22 +19211,22 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19000,34 +19236,34 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19047,40 +19283,40 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19093,28 +19329,28 @@
         <v>137</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -19144,33 +19380,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="116.975708502024"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="118.044534412955"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.4858299595142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19182,178 +19418,178 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="0" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D8" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="26" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D9" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="26" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D10" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="26" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D11" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37"/>
       <c r="B12" s="26" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D12" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37"/>
       <c r="B13" s="26" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D13" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="37"/>
       <c r="B14" s="38" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="37"/>
       <c r="B15" s="0" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D15" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37"/>
       <c r="B16" s="0" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D16" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37"/>
       <c r="B17" s="0" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D17" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37"/>
       <c r="B18" s="26" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D18" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19363,91 +19599,91 @@
         <v>0.075</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37"/>
       <c r="B20" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D20" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37"/>
       <c r="B21" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D21" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D22" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="37"/>
       <c r="B23" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D23" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37"/>
       <c r="B24" s="26" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D24" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37"/>
       <c r="B25" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D25" s="30"/>
     </row>
@@ -19458,70 +19694,70 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D27" s="30" t="n">
         <v>0.064</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="37"/>
       <c r="B28" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D28" s="30" t="n">
         <v>0.064</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="39" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D29" s="30" t="n">
         <v>0.059</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D30" s="30" t="n">
         <v>0.059</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19531,114 +19767,114 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D32" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D33" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="26" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D34" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="26" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D35" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="26" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D36" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D37" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D38" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
       <c r="B39" s="26" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D39" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K39" s="23"/>
       <c r="L39" s="41"/>
@@ -19665,19 +19901,19 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D40" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="41"/>
@@ -19808,32 +20044,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.165991902834"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.8056680161943"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.4453441295547"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -19842,10 +20078,10 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -19853,133 +20089,133 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19998,16 +20234,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="26" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>133</v>
@@ -20016,10 +20252,10 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="26" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>133</v>
@@ -20028,10 +20264,10 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>133</v>
@@ -20039,10 +20275,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="26" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>133</v>
@@ -20050,10 +20286,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="26" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>133</v>
@@ -20065,13 +20301,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>133</v>
@@ -20079,10 +20315,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>133</v>
@@ -20090,10 +20326,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>133</v>
@@ -20101,10 +20337,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>133</v>
@@ -20112,10 +20348,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>133</v>
@@ -20127,16 +20363,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="26" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>133</v>
@@ -20144,10 +20380,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="26" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>133</v>
@@ -20155,7 +20391,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/IO_M2.1_new/Reprod_RunControl_M2.1_new.xlsx
+++ b/IO_M2.1_new/Reprod_RunControl_M2.1_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="508">
   <si>
     <t xml:space="preserve">Sheet #</t>
   </si>
@@ -525,13 +525,19 @@
     <t xml:space="preserve">VSERS</t>
   </si>
   <si>
-    <t xml:space="preserve">VSERS.fillin.yos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSERS.fillin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSERS.yos</t>
+    <t xml:space="preserve">VT-VSERS.fillin.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT-VSERS.fillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VT-VSERS.yos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtvsersterm.average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vtvsersret</t>
   </si>
   <si>
     <t xml:space="preserve">Demographics</t>
@@ -1742,13 +1748,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -2303,9 +2309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>606960</xdr:colOff>
+      <xdr:colOff>606240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2314,8 +2320,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8165880" y="3313440"/>
-          <a:ext cx="2527920" cy="1531800"/>
+          <a:off x="6589440" y="3313440"/>
+          <a:ext cx="2035440" cy="1531080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2346,11 +2352,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟</a:t>
@@ -2360,11 +2361,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>_𝑔=𝑟_(𝑎 )− </a:t>
@@ -2374,11 +2370,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>〖𝑠𝑑〗</a:t>
@@ -2388,24 +2379,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>^2  </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2420,11 +2398,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>(𝑟_(𝑎 )−𝑟_(𝑓  ))/𝑠𝑑</a:t>
@@ -2434,24 +2407,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t> = S</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2461,15 +2421,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2484,11 +2436,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Solve for sd and </a:t>
@@ -2498,11 +2445,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟_(𝑎 )</a:t>
@@ -2512,24 +2454,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>:</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2539,15 +2468,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2562,11 +2483,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>sd = </a:t>
@@ -2576,24 +2492,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>(2𝑆 − √(4𝑠^2  −8(𝑟_𝑔  − 𝑟_𝑓))  )/2</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2608,11 +2511,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟</a:t>
@@ -2622,11 +2520,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>_(𝑎 )</a:t>
@@ -2636,11 +2529,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= </a:t>
@@ -2650,11 +2538,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>𝑟_(𝑔 )+  </a:t>
@@ -2664,11 +2547,6 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>〖𝑠𝑑〗</a:t>
@@ -2678,24 +2556,11 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
               <a:latin typeface="Cambria Math"/>
             </a:rPr>
             <a:t>^2⁄2</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2705,15 +2570,7 @@
               <a:spcPct val="100000"/>
             </a:lnSpc>
           </a:pPr>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2731,7 +2588,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2739,11 +2596,11 @@
       <selection pane="bottomRight" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.60728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,7 +2643,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2801,42 +2658,42 @@
   </sheetPr>
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="0"/>
@@ -2845,23 +2702,23 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B2" s="42" t="n">
         <v>0.46</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="42" t="n">
         <v>0.46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O2" s="42" t="n">
         <v>0.46</v>
@@ -2872,7 +2729,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B3" s="43" t="n">
         <v>0.027</v>
@@ -2900,46 +2757,46 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="I5" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="P5" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="N5" s="0" t="s">
+      <c r="R5" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3466,7 +3323,7 @@
       <c r="N26" s="49"/>
       <c r="O26" s="51"/>
       <c r="P26" s="51" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Q26" s="49"/>
       <c r="R26" s="50"/>
@@ -3519,19 +3376,19 @@
       <c r="B30" s="0"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="L30" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P30" s="0"/>
     </row>
@@ -3559,7 +3416,7 @@
         <v>0.075</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P31" s="0"/>
     </row>
@@ -3587,7 +3444,7 @@
         <v>0.075</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="P32" s="0"/>
     </row>
@@ -3622,7 +3479,7 @@
         <v>0.0606901998</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P34" s="0"/>
     </row>
@@ -3649,14 +3506,14 @@
         <v>0.0332</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="P35" s="0"/>
       <c r="R35" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="T35" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3682,7 +3539,7 @@
         <v>0.08083072</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P36" s="0"/>
       <c r="R36" s="0" t="n">
@@ -3736,7 +3593,7 @@
         <v>0.0606901998</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="R38" s="0" t="n">
         <v>0.081</v>
@@ -3771,7 +3628,7 @@
         <v>0.0332</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3796,13 +3653,13 @@
         <v>0.08083072</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3818,20 +3675,20 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="27" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="27" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="27" width="9.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="27" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="27" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,25 +3750,25 @@
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
       <c r="D5" s="56" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="I5" s="58" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
@@ -3923,7 +3780,7 @@
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
       <c r="D6" s="59" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E6" s="60" t="n">
         <v>0.459999999999999</v>
@@ -3953,7 +3810,7 @@
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
       <c r="D7" s="62" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E7" s="63" t="n">
         <v>0.46</v>
@@ -3983,7 +3840,7 @@
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
       <c r="D8" s="59" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E8" s="60" t="n">
         <v>0.46</v>
@@ -4032,7 +3889,7 @@
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
       <c r="D10" s="59" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E10" s="65" t="n">
         <v>0.36506976744186</v>
@@ -4062,7 +3919,7 @@
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
       <c r="D11" s="59" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E11" s="65" t="n">
         <v>0.317084012446288</v>
@@ -4092,7 +3949,7 @@
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="59" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E12" s="65" t="n">
         <v>0.133333333333333</v>
@@ -4122,7 +3979,7 @@
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
       <c r="D13" s="66" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E13" s="67" t="n">
         <v>0.293478260869565</v>
@@ -4152,7 +4009,7 @@
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
       <c r="D14" s="69" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
@@ -4330,7 +4187,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E25" s="46" t="n">
         <v>0.423209302325581</v>
@@ -4353,7 +4210,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E26" s="46" t="n">
         <v>0.391169062083272</v>
@@ -4376,7 +4233,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E27" s="46" t="n">
         <v>0.3</v>
@@ -4399,7 +4256,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E28" s="46" t="n">
         <v>0.347826086956522</v>
@@ -4426,7 +4283,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4441,13 +4298,13 @@
   </sheetPr>
   <dimension ref="A6:A25"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H46" activeCellId="0" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4523,7 +4380,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4538,40 +4395,40 @@
   </sheetPr>
   <dimension ref="A1:AY109"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="0" topLeftCell="L3" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topRight" activeCell="N10" activeCellId="0" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="true" max="10" min="9" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="29" min="27" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="4" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="32" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="41" min="38" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="43" min="42" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="48" min="44" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="49" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="25.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="0" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="17" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="27" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="4" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="32" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="38" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="42" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="44" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="49" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,17 +5505,16 @@
         <v>135</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="O10" s="23" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="22" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="23" t="n">
         <v>0.022</v>
@@ -5777,7 +5633,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
@@ -5810,10 +5666,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C14" s="22" t="n">
         <v>0</v>
@@ -5969,10 +5825,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -6128,10 +5984,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>168</v>
       </c>
       <c r="C16" s="22" t="n">
         <v>0</v>
@@ -6287,10 +6143,10 @@
     </row>
     <row r="17" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -6446,10 +6302,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C18" s="22" t="n">
         <v>0</v>
@@ -6605,10 +6461,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C19" s="22" t="n">
         <v>0</v>
@@ -6764,10 +6620,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C20" s="22" t="n">
         <v>0</v>
@@ -6923,10 +6779,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>174</v>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -7082,10 +6938,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -7241,10 +7097,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C23" s="22" t="n">
         <v>0</v>
@@ -7400,10 +7256,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C24" s="22" t="n">
         <v>0</v>
@@ -7591,10 +7447,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C26" s="22" t="n">
         <v>0</v>
@@ -7750,10 +7606,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C27" s="22" t="n">
         <v>0</v>
@@ -7940,7 +7796,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -7973,7 +7829,7 @@
     </row>
     <row r="30" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -8006,10 +7862,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C31" s="22" t="n">
         <v>0</v>
@@ -8166,10 +8022,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C32" s="22" t="n">
         <v>0</v>
@@ -8326,10 +8182,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -8486,10 +8342,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -8646,10 +8502,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -8806,10 +8662,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C36" s="22" t="n">
         <v>0</v>
@@ -8965,10 +8821,10 @@
     </row>
     <row r="37" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C37" s="22" t="n">
         <v>0</v>
@@ -9125,10 +8981,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C38" s="22" t="n">
         <v>0</v>
@@ -9284,10 +9140,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C39" s="22" t="n">
         <v>0</v>
@@ -9444,10 +9300,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C40" s="22" t="n">
         <v>0</v>
@@ -9635,10 +9491,10 @@
     </row>
     <row r="42" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -9795,10 +9651,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C43" s="22" t="n">
         <v>0</v>
@@ -9955,10 +9811,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C44" s="22" t="n">
         <v>0</v>
@@ -10115,10 +9971,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -10275,10 +10131,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -10435,10 +10291,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -10595,10 +10451,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C48" s="22" t="n">
         <v>0</v>
@@ -10755,10 +10611,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C49" s="22" t="n">
         <v>0</v>
@@ -10946,10 +10802,10 @@
     </row>
     <row r="51" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C51" s="22" t="n">
         <v>0</v>
@@ -11106,10 +10962,10 @@
     </row>
     <row r="52" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C52" s="22" t="n">
         <v>0</v>
@@ -11266,10 +11122,10 @@
     </row>
     <row r="53" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C53" s="22" t="n">
         <v>0</v>
@@ -11426,10 +11282,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C54" s="22" t="n">
         <v>0</v>
@@ -11586,10 +11442,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C55" s="22" t="n">
         <v>0</v>
@@ -11746,10 +11602,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C56" s="22" t="n">
         <v>0</v>
@@ -11906,10 +11762,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C57" s="22" t="n">
         <v>0</v>
@@ -12066,10 +11922,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -12297,7 +12153,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="31" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C61" s="22"/>
       <c r="D61" s="22"/>
@@ -12330,10 +12186,10 @@
     </row>
     <row r="62" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C62" s="22" t="n">
         <v>0</v>
@@ -12490,10 +12346,10 @@
     </row>
     <row r="63" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -12650,10 +12506,10 @@
     </row>
     <row r="64" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -12810,10 +12666,10 @@
     </row>
     <row r="65" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -12970,10 +12826,10 @@
     </row>
     <row r="66" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -13130,10 +12986,10 @@
     </row>
     <row r="67" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C67" s="22" t="n">
         <v>0</v>
@@ -13289,10 +13145,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -13449,10 +13305,10 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C69" s="22" t="n">
         <v>0</v>
@@ -13641,10 +13497,10 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -13833,7 +13689,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
@@ -13867,10 +13723,10 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C74" s="22" t="n">
         <v>0</v>
@@ -14026,10 +13882,10 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -14186,10 +14042,10 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -14346,10 +14202,10 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C77" s="22" t="n">
         <v>0</v>
@@ -14506,10 +14362,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -14666,10 +14522,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -14826,10 +14682,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C80" s="22" t="n">
         <v>0</v>
@@ -14986,10 +14842,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -15178,7 +15034,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="31" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
@@ -15212,10 +15068,10 @@
     </row>
     <row r="84" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -15372,10 +15228,10 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -15532,10 +15388,10 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -15692,10 +15548,10 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -15852,10 +15708,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C88" s="22" t="n">
         <v>0</v>
@@ -16045,7 +15901,7 @@
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
       <c r="B90" s="31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
@@ -16072,10 +15928,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C91" s="22" t="n">
         <v>0</v>
@@ -16232,10 +16088,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C92" s="22" t="n">
         <v>0</v>
@@ -16392,10 +16248,10 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C93" s="22" t="n">
         <v>0</v>
@@ -16552,10 +16408,10 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C94" s="22" t="n">
         <v>0</v>
@@ -16712,10 +16568,10 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C95" s="22" t="n">
         <v>0</v>
@@ -16904,7 +16760,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
@@ -16937,10 +16793,10 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C98" s="22" t="n">
         <v>0</v>
@@ -17097,10 +16953,10 @@
     </row>
     <row r="99" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C99" s="22" t="n">
         <v>0</v>
@@ -17257,10 +17113,10 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C100" s="22" t="n">
         <v>0</v>
@@ -17417,10 +17273,10 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="26" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -17577,10 +17433,10 @@
     </row>
     <row r="102" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C102" s="22" t="n">
         <v>0</v>
@@ -17740,17 +17596,17 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AC104" s="34"/>
       <c r="AE104" s="0"/>
     </row>
     <row r="105" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C105" s="22" t="n">
         <v>0</v>
@@ -17908,10 +17764,10 @@
     </row>
     <row r="106" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C106" s="22" t="n">
         <v>0</v>
@@ -18069,10 +17925,10 @@
     </row>
     <row r="107" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -18230,10 +18086,10 @@
     </row>
     <row r="108" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C108" s="22" t="n">
         <v>0</v>
@@ -18391,10 +18247,10 @@
     </row>
     <row r="109" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -18736,7 +18592,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18751,14 +18607,14 @@
   </sheetPr>
   <dimension ref="A3:D6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18772,7 +18628,7 @@
         <v>109</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18820,7 +18676,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18835,13 +18691,13 @@
   </sheetPr>
   <dimension ref="A2:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18849,19 +18705,19 @@
         <v>78</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18876,41 +18732,41 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18939,7 +18795,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -18954,21 +18810,21 @@
   </sheetPr>
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.6923076923077"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="92.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B1" s="3"/>
     </row>
@@ -18978,15 +18834,15 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18999,23 +18855,23 @@
         <v>139</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19028,23 +18884,23 @@
         <v>145</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19057,7 +18913,7 @@
         <v>142</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19065,7 +18921,7 @@
         <v>153</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19153,35 +19009,35 @@
         <v>133</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19211,22 +19067,22 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19236,34 +19092,34 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19283,40 +19139,40 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19329,28 +19185,28 @@
         <v>137</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -19359,7 +19215,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19374,39 +19230,39 @@
   </sheetPr>
   <dimension ref="A1:AR40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="118.044534412955"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="119.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="62.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19418,178 +19274,178 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0"/>
       <c r="B8" s="0" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D8" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
       <c r="B9" s="26" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D9" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0"/>
       <c r="B10" s="26" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D10" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0"/>
       <c r="B11" s="26" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D11" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="37"/>
       <c r="B12" s="26" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D12" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="37"/>
       <c r="B13" s="26" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D13" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="37"/>
       <c r="B14" s="38" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D14" s="30"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="37"/>
       <c r="B15" s="0" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D15" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37"/>
       <c r="B16" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D16" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37"/>
       <c r="B17" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D17" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="37"/>
       <c r="B18" s="26" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D18" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19599,91 +19455,91 @@
         <v>0.075</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="37"/>
       <c r="B20" s="0" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D20" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37"/>
       <c r="B21" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D21" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D22" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="37"/>
       <c r="B23" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D23" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="37"/>
       <c r="B24" s="26" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D24" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="37"/>
       <c r="B25" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D25" s="30"/>
     </row>
@@ -19694,70 +19550,70 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D27" s="30" t="n">
         <v>0.064</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="37"/>
       <c r="B28" s="0" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D28" s="30" t="n">
         <v>0.064</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0"/>
       <c r="B29" s="39" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D29" s="30" t="n">
         <v>0.059</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0"/>
       <c r="B30" s="0" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D30" s="30" t="n">
         <v>0.059</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19767,114 +19623,114 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D32" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D33" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="26" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D34" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="26" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D35" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="26" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D36" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D37" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D38" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
       <c r="B39" s="26" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D39" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K39" s="23"/>
       <c r="L39" s="41"/>
@@ -19901,19 +19757,19 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D40" s="30" t="n">
         <v>0.075</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K40" s="23"/>
       <c r="L40" s="41"/>
@@ -20023,7 +19879,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -20038,38 +19894,38 @@
   </sheetPr>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.4453441295547"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="78.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -20078,10 +19934,10 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -20089,133 +19945,133 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>168</v>
-      </c>
       <c r="D10" s="30" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20234,16 +20090,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>133</v>
@@ -20252,10 +20108,10 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>133</v>
@@ -20264,10 +20120,10 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>133</v>
@@ -20275,10 +20131,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>133</v>
@@ -20286,10 +20142,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>133</v>
@@ -20301,13 +20157,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>133</v>
@@ -20315,10 +20171,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>133</v>
@@ -20326,10 +20182,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>133</v>
@@ -20337,10 +20193,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>133</v>
@@ -20348,10 +20204,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>133</v>
@@ -20363,16 +20219,16 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="26" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>133</v>
@@ -20380,10 +20236,10 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="26" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>133</v>
@@ -20391,13 +20247,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
